--- a/BIDMC/nasal_swab_results/nasal_swab_results.xlsx
+++ b/BIDMC/nasal_swab_results/nasal_swab_results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,27 @@
   <si>
     <t>6 inch long, dark rose with thin mesh head</t>
   </si>
+  <si>
+    <t>PT_HM_BL_098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasal swab with ~6mm bulb </t>
+  </si>
+  <si>
+    <t xml:space="preserve">rayon and an unspecified (methylcellulos) stick </t>
+  </si>
+  <si>
+    <t>pharmatec</t>
+  </si>
+  <si>
+    <t>PT_HM_BL_0630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nasl swab with a longer bud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIDMC </t>
+  </si>
 </sst>
 </file>
 
@@ -187,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -201,6 +222,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,11 +523,12 @@
   <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F217" sqref="F217"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
@@ -808,15 +833,27 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+    <row r="8" spans="1:28" ht="52.5" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="6">
+        <v>43978</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -838,15 +875,27 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:28" ht="52.5" thickBot="1">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="6">
+        <v>43978</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
